--- a/Assignment3/count.xlsx
+++ b/Assignment3/count.xlsx
@@ -162,6 +162,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Count</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -190,7 +193,9 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="99000"/>
+                  </a:srgbClr>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -237,21 +242,6 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$11</c:f>
@@ -363,6 +353,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -425,6 +470,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -474,6 +574,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1408,7 +1539,7 @@
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
